--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Wnt5a-Mcam.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Wnt5a-Mcam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -83,9 +86,6 @@
   </si>
   <si>
     <t>Mcam</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>Inflammatory-Mac</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.619088000000001</v>
+        <v>0.125615</v>
       </c>
       <c r="H2">
-        <v>13.857264</v>
+        <v>0.25123</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.02647478672532295</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.01780700335556722</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>121.2130545</v>
+        <v>138.2205735</v>
       </c>
       <c r="N2">
-        <v>242.426109</v>
+        <v>276.441147</v>
       </c>
       <c r="O2">
-        <v>0.4742742514031324</v>
+        <v>0.626961773180729</v>
       </c>
       <c r="P2">
-        <v>0.4028886461111008</v>
+        <v>0.6221415178520601</v>
       </c>
       <c r="Q2">
-        <v>559.893765484296</v>
+        <v>17.3625773402025</v>
       </c>
       <c r="R2">
-        <v>3359.362592905776</v>
+        <v>69.45030936081</v>
       </c>
       <c r="S2">
-        <v>0.4742742514031324</v>
+        <v>0.01659867922989011</v>
       </c>
       <c r="T2">
-        <v>0.4028886461111008</v>
+        <v>0.01107847609602932</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.619088000000001</v>
+        <v>0.125615</v>
       </c>
       <c r="H3">
-        <v>13.857264</v>
+        <v>0.25123</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.02647478672532295</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.01780700335556722</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>2.735872</v>
       </c>
       <c r="O3">
-        <v>0.00356824504887189</v>
+        <v>0.004136593940350246</v>
       </c>
       <c r="P3">
-        <v>0.004546753526507615</v>
+        <v>0.006157185994923365</v>
       </c>
       <c r="Q3">
-        <v>4.212411174912</v>
+        <v>0.1145555204266667</v>
       </c>
       <c r="R3">
-        <v>37.911700574208</v>
+        <v>0.6873331225599999</v>
       </c>
       <c r="S3">
-        <v>0.00356824504887189</v>
+        <v>0.0001095154423400361</v>
       </c>
       <c r="T3">
-        <v>0.004546753526507615</v>
+        <v>0.0001096410316724519</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.619088000000001</v>
+        <v>0.125615</v>
       </c>
       <c r="H4">
-        <v>13.857264</v>
+        <v>0.25123</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.02647478672532295</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.01780700335556722</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.7040186666666667</v>
+        <v>0.3000813333333334</v>
       </c>
       <c r="N4">
-        <v>2.112056</v>
+        <v>0.900244</v>
       </c>
       <c r="O4">
-        <v>0.002754636680714657</v>
+        <v>0.001361154277406497</v>
       </c>
       <c r="P4">
-        <v>0.003510031926267592</v>
+        <v>0.002026034020894907</v>
       </c>
       <c r="Q4">
-        <v>3.251924174976001</v>
+        <v>0.03769471668666667</v>
       </c>
       <c r="R4">
-        <v>29.267317574784</v>
+        <v>0.22616830012</v>
       </c>
       <c r="S4">
-        <v>0.002754636680714657</v>
+        <v>3.603626919459808E-05</v>
       </c>
       <c r="T4">
-        <v>0.003510031926267592</v>
+        <v>3.607759460856895E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.619088000000001</v>
+        <v>0.125615</v>
       </c>
       <c r="H5">
-        <v>13.857264</v>
+        <v>0.25123</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.02647478672532295</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.01780700335556722</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>43.794673</v>
+        <v>78.82415950000001</v>
       </c>
       <c r="N5">
-        <v>87.58934600000001</v>
+        <v>157.648319</v>
       </c>
       <c r="O5">
-        <v>0.1713568380748955</v>
+        <v>0.357542539132936</v>
       </c>
       <c r="P5">
-        <v>0.1455649854269483</v>
+        <v>0.3547936533105391</v>
       </c>
       <c r="Q5">
-        <v>202.291448518224</v>
+        <v>9.901496795592502</v>
       </c>
       <c r="R5">
-        <v>1213.748691109344</v>
+        <v>39.60598718237001</v>
       </c>
       <c r="S5">
-        <v>0.1713568380748955</v>
+        <v>0.009465862468774918</v>
       </c>
       <c r="T5">
-        <v>0.1455649854269483</v>
+        <v>0.006317811775034723</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.619088000000001</v>
+        <v>0.125615</v>
       </c>
       <c r="H6">
-        <v>13.857264</v>
+        <v>0.25123</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.02647478672532295</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.01780700335556722</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>88.26666266666666</v>
+        <v>1.659958666666667</v>
       </c>
       <c r="N6">
-        <v>264.799988</v>
+        <v>4.979876</v>
       </c>
       <c r="O6">
-        <v>0.3453638350486923</v>
+        <v>0.007529491469372698</v>
       </c>
       <c r="P6">
-        <v>0.4400718598158738</v>
+        <v>0.01120740398807217</v>
       </c>
       <c r="Q6">
-        <v>407.711482323648</v>
+        <v>0.2085157079133333</v>
       </c>
       <c r="R6">
-        <v>3669.403340912832</v>
+        <v>1.25109424748</v>
       </c>
       <c r="S6">
-        <v>0.3453638350486923</v>
+        <v>0.0001993416808017807</v>
       </c>
       <c r="T6">
-        <v>0.4400718598158738</v>
+        <v>0.0001995702804227986</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.619088000000001</v>
+        <v>0.125615</v>
       </c>
       <c r="H7">
-        <v>13.857264</v>
+        <v>0.25123</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0.02647478672532295</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0.01780700335556722</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,400 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.6855039999999999</v>
+        <v>0.5441963333333334</v>
       </c>
       <c r="N7">
-        <v>2.056512</v>
+        <v>1.632589</v>
       </c>
       <c r="O7">
-        <v>0.002682193743693283</v>
+        <v>0.002468447999205544</v>
       </c>
       <c r="P7">
-        <v>0.00341772319330189</v>
+        <v>0.003674204833510465</v>
       </c>
       <c r="Q7">
-        <v>3.166403300352</v>
+        <v>0.06835922241166667</v>
       </c>
       <c r="R7">
-        <v>28.497629703168</v>
+        <v>0.41015533447</v>
       </c>
       <c r="S7">
-        <v>0.002682193743693283</v>
+        <v>6.535163432151693E-05</v>
       </c>
       <c r="T7">
-        <v>0.00341772319330189</v>
+        <v>6.542657779936216E-05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>4.619088000000001</v>
+      </c>
+      <c r="H8">
+        <v>13.857264</v>
+      </c>
+      <c r="I8">
+        <v>0.9735252132746771</v>
+      </c>
+      <c r="J8">
+        <v>0.9821929966444328</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>138.2205735</v>
+      </c>
+      <c r="N8">
+        <v>276.441147</v>
+      </c>
+      <c r="O8">
+        <v>0.626961773180729</v>
+      </c>
+      <c r="P8">
+        <v>0.6221415178520601</v>
+      </c>
+      <c r="Q8">
+        <v>638.4529924069681</v>
+      </c>
+      <c r="R8">
+        <v>3830.717954441808</v>
+      </c>
+      <c r="S8">
+        <v>0.6103630939508389</v>
+      </c>
+      <c r="T8">
+        <v>0.6110630417560308</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>4.619088000000001</v>
+      </c>
+      <c r="H9">
+        <v>13.857264</v>
+      </c>
+      <c r="I9">
+        <v>0.9735252132746771</v>
+      </c>
+      <c r="J9">
+        <v>0.9821929966444328</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.9119573333333332</v>
+      </c>
+      <c r="N9">
+        <v>2.735872</v>
+      </c>
+      <c r="O9">
+        <v>0.004136593940350246</v>
+      </c>
+      <c r="P9">
+        <v>0.006157185994923365</v>
+      </c>
+      <c r="Q9">
+        <v>4.212411174912</v>
+      </c>
+      <c r="R9">
+        <v>37.911700574208</v>
+      </c>
+      <c r="S9">
+        <v>0.00402707849801021</v>
+      </c>
+      <c r="T9">
+        <v>0.006047544963250913</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>4.619088000000001</v>
+      </c>
+      <c r="H10">
+        <v>13.857264</v>
+      </c>
+      <c r="I10">
+        <v>0.9735252132746771</v>
+      </c>
+      <c r="J10">
+        <v>0.9821929966444328</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.3000813333333334</v>
+      </c>
+      <c r="N10">
+        <v>0.900244</v>
+      </c>
+      <c r="O10">
+        <v>0.001361154277406497</v>
+      </c>
+      <c r="P10">
+        <v>0.002026034020894907</v>
+      </c>
+      <c r="Q10">
+        <v>1.386102085824</v>
+      </c>
+      <c r="R10">
+        <v>12.474918772416</v>
+      </c>
+      <c r="S10">
+        <v>0.001325118008211899</v>
+      </c>
+      <c r="T10">
+        <v>0.001989956426286338</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>4.619088000000001</v>
+      </c>
+      <c r="H11">
+        <v>13.857264</v>
+      </c>
+      <c r="I11">
+        <v>0.9735252132746771</v>
+      </c>
+      <c r="J11">
+        <v>0.9821929966444328</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>78.82415950000001</v>
+      </c>
+      <c r="N11">
+        <v>157.648319</v>
+      </c>
+      <c r="O11">
+        <v>0.357542539132936</v>
+      </c>
+      <c r="P11">
+        <v>0.3547936533105391</v>
+      </c>
+      <c r="Q11">
+        <v>364.0957292565361</v>
+      </c>
+      <c r="R11">
+        <v>2184.574375539216</v>
+      </c>
+      <c r="S11">
+        <v>0.3480766766641611</v>
+      </c>
+      <c r="T11">
+        <v>0.3484758415355044</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>4.619088000000001</v>
+      </c>
+      <c r="H12">
+        <v>13.857264</v>
+      </c>
+      <c r="I12">
+        <v>0.9735252132746771</v>
+      </c>
+      <c r="J12">
+        <v>0.9821929966444328</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1.659958666666667</v>
+      </c>
+      <c r="N12">
+        <v>4.979876</v>
+      </c>
+      <c r="O12">
+        <v>0.007529491469372698</v>
+      </c>
+      <c r="P12">
+        <v>0.01120740398807217</v>
+      </c>
+      <c r="Q12">
+        <v>7.667495157696001</v>
+      </c>
+      <c r="R12">
+        <v>69.007456419264</v>
+      </c>
+      <c r="S12">
+        <v>0.007330149788570918</v>
+      </c>
+      <c r="T12">
+        <v>0.01100783370764937</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>4.619088000000001</v>
+      </c>
+      <c r="H13">
+        <v>13.857264</v>
+      </c>
+      <c r="I13">
+        <v>0.9735252132746771</v>
+      </c>
+      <c r="J13">
+        <v>0.9821929966444328</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.5441963333333334</v>
+      </c>
+      <c r="N13">
+        <v>1.632589</v>
+      </c>
+      <c r="O13">
+        <v>0.002468447999205544</v>
+      </c>
+      <c r="P13">
+        <v>0.003674204833510465</v>
+      </c>
+      <c r="Q13">
+        <v>2.513690752944</v>
+      </c>
+      <c r="R13">
+        <v>22.623216776496</v>
+      </c>
+      <c r="S13">
+        <v>0.002403096364884027</v>
+      </c>
+      <c r="T13">
+        <v>0.003608778255711103</v>
       </c>
     </row>
   </sheetData>
